--- a/hncj/WebRoot/template/房屋信息导入模板.xlsx
+++ b/hncj/WebRoot/template/房屋信息导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="8805" activeTab="1"/>
+    <workbookView windowWidth="19095" windowHeight="8805"/>
   </bookViews>
   <sheets>
     <sheet name="4号楼" sheetId="1" r:id="rId1"/>
@@ -58,11 +58,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -667,7 +668,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,6 +678,13 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -995,16 +1003,16 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1014,7 +1022,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1031,7 +1039,7 @@
       <c r="B2">
         <v>90.12</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>41927</v>
       </c>
       <c r="D2" t="s">
@@ -1045,7 +1053,7 @@
       <c r="B3">
         <v>125.12</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>41927</v>
       </c>
       <c r="D3" t="s">
@@ -1063,8 +1071,8 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1129,7 +1137,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
